--- a/xlsx/市场_intext.xlsx
+++ b/xlsx/市场_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>市场</t>
   </si>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>傳統市場</t>
+    <t>传统市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>商品經濟</t>
+    <t>商品经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E8%AD%89%E4%BA%A4%E6%89%80</t>
   </si>
   <si>
-    <t>東京證交所</t>
+    <t>东京证交所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E5%B0%8B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>搜尋成本</t>
+    <t>搜寻成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B7%E8%B3%A3</t>
   </si>
   <si>
-    <t>買賣</t>
+    <t>买卖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%98%93</t>
@@ -77,55 +77,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>股票市場</t>
+    <t>股票市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E8%B2%A8%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>期貨市場</t>
+    <t>期货市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E6%A9%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>市場機制</t>
+    <t>市场机制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%83%B9%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>等價交換</t>
+    <t>等价交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%88%A9%E7%9B%8A%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>絕對利益原則</t>
+    <t>绝对利益原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%88%A9%E7%9B%8A%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>比較利益原則</t>
+    <t>比较利益原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85</t>
   </si>
   <si>
-    <t>消費者</t>
+    <t>消费者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E7%B4%A0%E5%B8%82%E5%9C%BA</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>自然資源</t>
+    <t>自然资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>人力資源</t>
+    <t>人力资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>資本</t>
+    <t>资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E6%A0%BC</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E8%90%A5%E9%94%80</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%A4%E8%B2%A9</t>
   </si>
   <si>
-    <t>攤販</t>
+    <t>摊贩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E9%83%8E%E6%8B%85</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E7%99%BC</t>
   </si>
   <si>
-    <t>批發</t>
+    <t>批发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%B2%A8%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>百貨公司</t>
+    <t>百货公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E9%94%81%E5%BA%97</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%A8%B1%E7%B6%93%E7%87%9F</t>
   </si>
   <si>
-    <t>特許經營</t>
+    <t>特许经营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%8D%96%E5%BA%97</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%A0%B4</t>
   </si>
   <si>
-    <t>商場</t>
+    <t>商场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>超級市場</t>
+    <t>超级市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E8%B3%BC%E7%89%A9</t>
   </si>
   <si>
-    <t>電視購物</t>
+    <t>电视购物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E8%90%A5%E9%94%80</t>
@@ -305,15 +305,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E5%88%B8%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>證券市場</t>
+    <t>证券市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E8%B4%A7%E5%B8%82%E5%9C%BA</t>
   </si>
   <si>
-    <t>期货市场</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%99%A9</t>
   </si>
   <si>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%A0%AD</t>
   </si>
   <si>
-    <t>獵頭</t>
+    <t>猎头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E9%81%A3%E6%9C%8D%E5%8A%A1</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%94%A2%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>地產市場</t>
+    <t>地产市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2166,7 @@
         <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2195,10 +2192,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2224,10 +2221,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2253,10 +2250,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2282,10 +2279,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2311,10 +2308,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2340,10 +2337,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2369,10 +2366,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2398,10 +2395,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2427,10 +2424,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2456,10 +2453,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2485,10 +2482,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
